--- a/plotpackage/data/formation_energy.xlsx
+++ b/plotpackage/data/formation_energy.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Formation Energy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>single doping in the first layer</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>Pt</t>
+  </si>
+  <si>
+    <t>single doping in the subsurface</t>
+  </si>
+  <si>
+    <t>overlayer</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>subsurface</t>
+  </si>
+  <si>
+    <t>parallelogram</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Hf</t>
   </si>
 </sst>
 </file>
@@ -365,73 +386,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>5.5496137499985387E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0.1092539975000042</v>
+      </c>
+      <c r="D2">
+        <v>0.36753135638888895</v>
+      </c>
+      <c r="E2">
+        <v>0.22382353250000531</v>
+      </c>
+      <c r="F2">
+        <v>0.31063214194444516</v>
+      </c>
+      <c r="G2">
+        <v>0.2323341250000075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>0.48683692500000753</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0.56391413500003473</v>
+      </c>
+      <c r="D3">
+        <v>0.72377658944444911</v>
+      </c>
+      <c r="E3">
+        <v>0.64230312499999975</v>
+      </c>
+      <c r="F3">
+        <v>0.65973504166667263</v>
+      </c>
+      <c r="G3">
+        <v>0.60245007000000506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>-0.13188766499997673</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>-0.20281884499997904</v>
+      </c>
+      <c r="D4">
+        <v>-0.2061410638888839</v>
+      </c>
+      <c r="E4">
+        <v>-6.6620834999992162E-2</v>
+      </c>
+      <c r="F4">
+        <v>-0.27891608944444474</v>
+      </c>
+      <c r="G4">
+        <v>-4.0901902499993703E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>-5.829132499996259E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>-0.13964059499999504</v>
+      </c>
+      <c r="D5">
+        <v>0.3022197727777779</v>
+      </c>
+      <c r="E5">
+        <v>0.1503021475000077</v>
+      </c>
+      <c r="F5">
+        <v>0.39943862388889273</v>
+      </c>
+      <c r="G5">
+        <v>0.20930033750000465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>-0.45645074637928573</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>-0.71314150637931206</v>
+      </c>
+      <c r="D6">
+        <v>-9.2570241570888202E-3</v>
+      </c>
+      <c r="E6">
+        <v>-0.14955614637930736</v>
+      </c>
+      <c r="F6">
+        <v>5.4509480287357408E-2</v>
+      </c>
+      <c r="G6">
+        <v>-9.9625411379303586E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0.39462549499999344</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0.37280091500000712</v>
+      </c>
+      <c r="D7">
+        <v>0.47790880055555796</v>
+      </c>
+      <c r="E7">
+        <v>0.53287292750000237</v>
+      </c>
+      <c r="F7">
+        <v>0.42017660611111096</v>
+      </c>
+      <c r="G7">
+        <v>0.49975075000001201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>-0.15383427249997261</v>
+      </c>
+      <c r="C8">
+        <v>0.22755464750003362</v>
+      </c>
+      <c r="D8">
+        <v>0.2846047808333374</v>
+      </c>
+      <c r="E8">
+        <v>8.2740877500006249E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.52999399083333487</v>
+      </c>
+      <c r="G8">
+        <v>0.12850357000001189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-1.0553793694444416</v>
+      </c>
+      <c r="E9">
+        <v>-1.1420011749999892</v>
+      </c>
+      <c r="F9">
+        <v>-1.0078864494444422</v>
+      </c>
+      <c r="G9">
+        <v>-1.0807497274999909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>-0.76025394722222039</v>
+      </c>
+      <c r="E10">
+        <v>-1.5250302849999908</v>
+      </c>
+      <c r="F10">
+        <v>-0.65028787499999929</v>
+      </c>
+      <c r="G10">
+        <v>-1.4776542124999903</v>
       </c>
     </row>
   </sheetData>

--- a/plotpackage/data/formation_energy.xlsx
+++ b/plotpackage/data/formation_energy.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
-    <sheet name="Formation Energy" sheetId="1" r:id="rId1"/>
+    <sheet name="formation_energy" sheetId="2" r:id="rId1"/>
+    <sheet name="Formation Energy" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>single doping in the first layer</t>
   </si>
@@ -64,6 +65,51 @@
   </si>
   <si>
     <t>Hf</t>
+  </si>
+  <si>
+    <t>Formation energy /atom</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>triangle</t>
+  </si>
+  <si>
+    <t>paral</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Ag</t>
   </si>
 </sst>
 </file>
@@ -102,10 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +433,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-2.682882375000017</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-2.3147423850000139</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.1456910950000152</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-1.9782999999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-2.1810900000000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1.0619700000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.2997337850000426</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1.20034434</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-1.1071112916666683</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.0814900000000001</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1.1308800000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.0555300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.6345864999984592E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.8586224999987557E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.4369781666667514E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.7729E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.127331</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.17179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0542457836206758</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98595476362067203</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.0485388169540248</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.94550699999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.2100390000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0902940000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.96379928499997281</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98572536999999105</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.0603489650000013</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.013169</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.2078450000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.274842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.48645823499995977</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.54321582999998164</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.61322998833332287</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.66373400000000005</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.71816899999999995</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.91306600000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.6582697499961476E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.14148477749999611</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.21606606749999369</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.229937</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.22040999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.37912899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-5.1647300000481344E-3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.11769712499997675</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.23681690333332353</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.31396600000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33030500000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.38275900000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.41498802500001997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.19252467999999734</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-4.7827783333470224E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.1349999999999999E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1.6230000000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.53522899999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-2.9587881900000061</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-2.3724993400000178</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1.9965968233333333</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-2.1324800000000002</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-2.01335</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-6.5879999999999994E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-2.0103716899999968</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-1.7230195950000082</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1.5312892133333451</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1.5317700000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.5713999999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.82440000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.43799804000004716</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-0.34620314499999782</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.24071130333334434</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-0.25481999999999999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-0.31114000000000003</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-0.36393999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.70480392499997091</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.58418377499999163</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.65811165833333229</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.58962999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.78842999999999996</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.48210799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5663455899999823</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.64315748500000236</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.70779480666665473</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.71682900000000005</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.80048799999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.85557399999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-0.1951867400000129</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-6.6267635000018643E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-9.2723633333440247E-3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.0077000000000001E-2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6.4344999999999999E-2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.18244199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-4.826255000001356E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9.1028639999980676E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.21505558999999153</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.29142800000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.252662</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.56864899999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/plotpackage/data/formation_energy.xlsx
+++ b/plotpackage/data/formation_energy.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="formation_energy" sheetId="2" r:id="rId1"/>
-    <sheet name="Formation Energy" sheetId="1" r:id="rId2"/>
+    <sheet name="Formation Energy" sheetId="2" r:id="rId1"/>
+    <sheet name="Selectivity" sheetId="3" r:id="rId2"/>
+    <sheet name="Formation Energy backup" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>single doping in the first layer</t>
   </si>
@@ -70,18 +71,6 @@
     <t>Formation energy /atom</t>
   </si>
   <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>triangle</t>
-  </si>
-  <si>
-    <t>paral</t>
-  </si>
-  <si>
     <t>Sc</t>
   </si>
   <si>
@@ -110,6 +99,33 @@
   </si>
   <si>
     <t>Ag</t>
+  </si>
+  <si>
+    <t>ΔG(HOCO*)-ΔG(H*)</t>
+  </si>
+  <si>
+    <t>Near</t>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island </t>
+  </si>
+  <si>
+    <t>Overlayer</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Parall.</t>
   </si>
 </sst>
 </file>
@@ -435,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,27 +462,27 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>-2.682882375000017</v>
@@ -627,7 +643,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>-5.1647300000481344E-3</v>
@@ -650,7 +666,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
         <v>-0.41498802500001997</v>
@@ -673,7 +689,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>-2.9587881900000061</v>
@@ -696,7 +712,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
         <v>-2.0103716899999968</v>
@@ -719,7 +735,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
         <v>-0.43799804000004716</v>
@@ -742,7 +758,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>0.70480392499997091</v>
@@ -765,7 +781,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>0.5663455899999823</v>
@@ -788,7 +804,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>-0.1951867400000129</v>
@@ -811,7 +827,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
         <v>-4.826255000001356E-2</v>
@@ -839,10 +855,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="C2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="E2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="C3">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="D3">
+        <v>-0.66900000000000004</v>
+      </c>
+      <c r="E3">
+        <v>-0.23300000000000001</v>
+      </c>
+      <c r="F3">
+        <v>-0.66</v>
+      </c>
+      <c r="G3">
+        <v>-0.624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C4">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>-0.14699999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.29499999999999998</v>
+      </c>
+      <c r="F4">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="G4">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.32</v>
+      </c>
+      <c r="C5">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D6">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E6">
+        <v>0.183</v>
+      </c>
+      <c r="F6">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G6">
+        <v>-2.7E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D7">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="E7">
+        <v>0.43</v>
+      </c>
+      <c r="F7">
+        <v>0.04</v>
+      </c>
+      <c r="G7">
+        <v>-1.2769999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.97</v>
+      </c>
+      <c r="E8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G8">
+        <v>-0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>1.079</v>
+      </c>
+      <c r="D9">
+        <v>1.222</v>
+      </c>
+      <c r="E9">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.249</v>
+      </c>
+      <c r="G9">
+        <v>-0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.496</v>
+      </c>
+      <c r="D10">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G10">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.251</v>
+      </c>
+      <c r="D11">
+        <v>0.251</v>
+      </c>
+      <c r="E11">
+        <v>0.22</v>
+      </c>
+      <c r="F11">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.2150000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.312</v>
+      </c>
+      <c r="C12">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="D12">
+        <v>-0.68</v>
+      </c>
+      <c r="E12">
+        <v>-0.86</v>
+      </c>
+      <c r="F12">
+        <v>-1.131</v>
+      </c>
+      <c r="G12">
+        <v>-6.8940000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C13">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="D13">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="E13">
+        <v>-0.185</v>
+      </c>
+      <c r="F13">
+        <v>-0.59099999999999997</v>
+      </c>
+      <c r="G13">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>1.228</v>
+      </c>
+      <c r="C14">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.152</v>
+      </c>
+      <c r="E14">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="G14">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D15">
+        <v>0.623</v>
+      </c>
+      <c r="E15">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="F15">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G15">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>0.317</v>
+      </c>
+      <c r="C16">
+        <v>0.624</v>
+      </c>
+      <c r="D16">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.65</v>
+      </c>
+      <c r="F16">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.623</v>
+      </c>
+      <c r="D17">
+        <v>0.504</v>
+      </c>
+      <c r="E17">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="F17">
+        <v>0.53</v>
+      </c>
+      <c r="G17">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="D18">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="E18">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="G18">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/plotpackage/data/formation_energy.xlsx
+++ b/plotpackage/data/formation_energy.xlsx
@@ -104,9 +104,6 @@
     <t>ΔG(HOCO*)-ΔG(H*)</t>
   </si>
   <si>
-    <t>Near</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Parall.</t>
+  </si>
+  <si>
+    <t>Single</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,22 +462,22 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -858,7 +858,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,27 +868,27 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0.28799999999999998</v>
@@ -914,7 +914,7 @@
         <v>16</v>
       </c>
       <c r="B3">
-        <v>0.29799999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="C3">
         <v>-0.55700000000000005</v>
@@ -937,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>0.30199999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C4">
         <v>-5.2999999999999999E-2</v>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.32</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="C5">
         <v>0.74199999999999999</v>
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.28100000000000003</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C6">
         <v>0.56000000000000005</v>
@@ -1006,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.28899999999999998</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="C7">
         <v>0.83199999999999996</v>
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.30199999999999999</v>
+        <v>0.72299999999999998</v>
       </c>
       <c r="C8">
         <v>0.88200000000000001</v>
@@ -1052,7 +1052,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>0.29099999999999998</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="C9">
         <v>1.079</v>
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.32600000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="C10">
         <v>1.496</v>
@@ -1098,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>0.33600000000000002</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="C11">
         <v>0.251</v>
@@ -1121,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>0.312</v>
+        <v>-0.49399999999999999</v>
       </c>
       <c r="C12">
         <v>-0.32200000000000001</v>
@@ -1144,7 +1144,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>0.27800000000000002</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="C13">
         <v>-0.27700000000000002</v>
@@ -1167,7 +1167,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>1.228</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C14">
         <v>0.30499999999999999</v>
@@ -1190,7 +1190,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.33800000000000002</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C15">
         <v>0.52900000000000003</v>
@@ -1213,7 +1213,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.317</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="C16">
         <v>0.624</v>
@@ -1236,7 +1236,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.27400000000000002</v>
+        <v>0.626</v>
       </c>
       <c r="C17">
         <v>0.623</v>
@@ -1259,7 +1259,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.32800000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="C18">
         <v>1.7889999999999999</v>

--- a/plotpackage/data/formation_energy.xlsx
+++ b/plotpackage/data/formation_energy.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Formation Energy" sheetId="2" r:id="rId1"/>
     <sheet name="Selectivity" sheetId="3" r:id="rId2"/>
     <sheet name="Formation Energy backup" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
